--- a/medicine/Pharmacie/Daltéparine/Daltéparine.xlsx
+++ b/medicine/Pharmacie/Daltéparine/Daltéparine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dalt%C3%A9parine</t>
+          <t>Daltéparine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La daltéparine, est une molécule de type héparine de bas poids moléculaire, utilisée comme médicament et vendue sous le nom de marque Fragmin[1].
+La daltéparine, est une molécule de type héparine de bas poids moléculaire, utilisée comme médicament et vendue sous le nom de marque Fragmin.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dalt%C3%A9parine</t>
+          <t>Daltéparine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une héparine de faible poids moléculaire . Elle agit en se liant à l'antithrombine III et en inhibant l'activation du facteur IX et de la thrombine [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une héparine de faible poids moléculaire . Elle agit en se liant à l'antithrombine III et en inhibant l'activation du facteur IX et de la thrombine .
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dalt%C3%A9parine</t>
+          <t>Daltéparine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un médicament utilisé pour traiter et prévenir la thrombose veineuse profonde et l'embolie pulmonaire. Elle peut également être utilisée en cas de syndrome coronarien aigu. Elle est administrée par injection sous-cutanée [1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un médicament utilisé pour traiter et prévenir la thrombose veineuse profonde et l'embolie pulmonaire. Elle peut également être utilisée en cas de syndrome coronarien aigu. Elle est administrée par injection sous-cutanée .
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dalt%C3%A9parine</t>
+          <t>Daltéparine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les effets secondaires fréquents sont des saignements, un faible taux de plaquettes et des ecchymoses au point d'injection. Elle peut être utilisée pendant la grossesse.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dalt%C3%A9parine</t>
+          <t>Daltéparine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'utilisation médicale de la daltéparine a été approuvée aux États-Unis en 1994. Elle figure sur la liste des médicaments essentiels de l'Organisation mondiale de la santé en tant qu'alternative à l'énoxaparine. Au Royaume-Uni, une dose de 5 000 unités coûte au NHS environ 2,80 £ en 2021. Aux États-Unis, cette dose coûte environ 40 USD  [1],[3],[4],[5]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'utilisation médicale de la daltéparine a été approuvée aux États-Unis en 1994. Elle figure sur la liste des médicaments essentiels de l'Organisation mondiale de la santé en tant qu'alternative à l'énoxaparine. Au Royaume-Uni, une dose de 5 000 unités coûte au NHS environ 2,80 £ en 2021. Aux États-Unis, cette dose coûte environ 40 USD  
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dalt%C3%A9parine</t>
+          <t>Daltéparine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>References</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a b et c (en) « Dalteparin Monograph for Professionals » [archive du 14 avril 2021], Drugs.com (consulté le 17 décembre 2021)
